--- a/medicine/Psychotrope/Wagner-Bräu_Kemmern/Wagner-Bräu_Kemmern.xlsx
+++ b/medicine/Psychotrope/Wagner-Bräu_Kemmern/Wagner-Bräu_Kemmern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wagner-Br%C3%A4u_Kemmern</t>
+          <t>Wagner-Bräu_Kemmern</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Wagner-Bräu est une brasserie à Kemmern, dans le Land de Bavière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wagner-Br%C3%A4u_Kemmern</t>
+          <t>Wagner-Bräu_Kemmern</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est mentionnée pour la première fois dans des documents en 1788[1]. Depuis, la brasserie est une entreprise familiale qui en est à sa septième génération[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est mentionnée pour la première fois dans des documents en 1788. Depuis, la brasserie est une entreprise familiale qui en est à sa septième génération.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wagner-Br%C3%A4u_Kemmern</t>
+          <t>Wagner-Bräu_Kemmern</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie utilise l'eau de sa propre source Pierre et Paul selon des recettes transmises de génération en génération. Avec huit salariés, Wagner-Bräu produit 8 000 hl de bière et 10 000 hl de boissons non alcoolisées[3]. 
-Outre la pils et la lager, l'entreprise brasse également la Märzen, la Weizenbier, la bock, la Schwarzbier, la Landbier, la bière rousse, la Rauchbier et la Vollbier[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie utilise l'eau de sa propre source Pierre et Paul selon des recettes transmises de génération en génération. Avec huit salariés, Wagner-Bräu produit 8 000 hl de bière et 10 000 hl de boissons non alcoolisées. 
+Outre la pils et la lager, l'entreprise brasse également la Märzen, la Weizenbier, la bock, la Schwarzbier, la Landbier, la bière rousse, la Rauchbier et la Vollbier. 
 </t>
         </is>
       </c>
